--- a/biology/Botanique/Hort/Hort..xlsx
+++ b/biology/Botanique/Hort/Hort..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abréviation hort., du latin hortulanorum (« des jardiniers »), est une abréviation utilisée en nomenclature botanique pour désigner un horticulteur inconnu qui a décrit scientifiquement une espèce, généralement de manière incomplète.
 Cette abréviation est généralement tout en minuscule afin de ne pas la confondre avec l'abréviation de Fenton John Anthony Hort, qui est Hort, sans point.
